--- a/biology/Botanique/Arabette/Arabette.xlsx
+++ b/biology/Botanique/Arabette/Arabette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Arabette » est un nom vernaculaire désignant diverses espèces de plantes herbacées, annuelles, bisannuelles ou vivaces, de la famille des Brassicaceae appartenant au genre Arabis et à quelques genres voisins. Le genre Arabis comprenait de nombreuses espèces, dont un certain nombre ont été reclassées dans des genres voisins.
 Le nom d'« arabette » fait référence au fait que ces plantes affectionnent les sols sablonneux, qui font penser au désert d'Arabie. Leur aire de répartition couvre l'ensemble des régions tempérées et froides de l'Eurasie. 
@@ -512,7 +524,9 @@
           <t>genre Arabis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arabette à feuilles de Serpolet, Arabis serpyllifolia Vill.
 Arabette droite ou arabette auriculée, Arabis recta Vill.
@@ -568,7 +582,9 @@
           <t>genre Arabidopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arabette des dames, arabette de Thalius, Arabidopsis de Thalius, arabette rameuse ou fausse arabette, Arabidopsis thaliana (L.) Heynh.
 Arabette de Haller, Arabidopsis halleri (L.) O'Kane &amp; Al-Shehbaz
@@ -600,7 +616,9 @@
           <t>genre Cardaminopsis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arabette des sables, Cardaminopsis arenosa (L.) Hayek, Arabidopsis arenosa (L.) Lawalrée Arabis arenosa (L.) Scop.</t>
         </is>
@@ -630,7 +648,9 @@
           <t>genre Fourraea</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Arabette pauciflore ou Arabette faux chou, Fourraea alpina (L.) Greuter &amp; Burdet</t>
         </is>
@@ -660,7 +680,9 @@
           <t>genre Murbeckiella</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arabette pennatifide, Murbeckiella pinnatifida (Lam.) Rothm.</t>
         </is>
@@ -690,7 +712,9 @@
           <t>genre Pseudoturritis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Arabette Tourette, Pseudoturritis turrita (L.) Al-Shehbaz</t>
         </is>
@@ -720,7 +744,9 @@
           <t>genre Turritis</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Arabette glabre, Turritis glabra L., Arabis glabra (L.) Bernh.
  Portail de la botanique                     </t>
